--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t xml:space="preserve">海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -315,7 +324,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -334,10 +343,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -353,10 +362,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -372,10 +381,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -391,10 +400,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -410,10 +419,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -429,10 +438,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -448,10 +454,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -467,10 +473,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -486,10 +492,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -505,51 +511,51 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -562,38 +568,57 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>

--- a/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
+++ b/Mod_Korean/Lang/KR/Game/GlobalTile.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>
